--- a/class_diagram/descriptions/class_uebersicht_aktuell.xlsx
+++ b/class_diagram/descriptions/class_uebersicht_aktuell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianWalter\Documents\3. Semester\SE\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianWalter\Documents\GitHub\se_exploding_kittens\Projekt\h\class_diagram\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C39BA-E933-472B-9700-03BA7396CC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E5910-E4DB-4139-ABCF-18250D9973AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen Übersicht" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>aktionskarte</t>
-  </si>
-  <si>
-    <t>exploding kitten</t>
-  </si>
-  <si>
     <t>Paarkarten</t>
   </si>
   <si>
@@ -100,27 +94,12 @@
     <t>anzahl spieler, karten</t>
   </si>
   <si>
-    <t>karten übrig zum ziehen</t>
-  </si>
-  <si>
     <t>Wichtige Eigenschaften</t>
   </si>
   <si>
-    <t>Anzahl Karten</t>
-  </si>
-  <si>
-    <t>Aufdruck</t>
-  </si>
-  <si>
     <t>Aktion</t>
   </si>
   <si>
-    <t>Aktion und kombination</t>
-  </si>
-  <si>
-    <t>name, hand, Ausgeschieden</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ein Stapel von dem Karten gezogen, oder auf den Karten abgelegt wwerden können </t>
   </si>
   <si>
@@ -185,6 +164,39 @@
   </si>
   <si>
     <t>Entschärfen</t>
+  </si>
+  <si>
+    <t>Exploding kitten</t>
+  </si>
+  <si>
+    <t>Aktionskarte</t>
+  </si>
+  <si>
+    <t>Hat eine Aktion wenn eine Explding Kitten gezogen wurde.</t>
+  </si>
+  <si>
+    <t>name, hand, ausgeschieden</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>aktion und kombination</t>
+  </si>
+  <si>
+    <t>aktion</t>
+  </si>
+  <si>
+    <t>aufdruck</t>
+  </si>
+  <si>
+    <t>anzahl Karten</t>
+  </si>
+  <si>
+    <t>Eine Allgemeine Spielkarte mit einem Aufdruck.</t>
+  </si>
+  <si>
+    <t>2..5</t>
   </si>
 </sst>
 </file>
@@ -228,10 +240,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -512,23 +532,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="120.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="232.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,155 +559,172 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>56</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6-(B9+B11)</f>
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <f>B6-(B8+B9)</f>
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -701,228 +738,236 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/class_diagram/descriptions/class_uebersicht_aktuell.xlsx
+++ b/class_diagram/descriptions/class_uebersicht_aktuell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianWalter\Documents\GitHub\se_exploding_kittens\Projekt\h\class_diagram\descriptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6E5910-E4DB-4139-ABCF-18250D9973AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138581F-2A44-463C-A3B0-4EAE0FFE53E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>karte</t>
-  </si>
-  <si>
     <t>spieler, kartenstapel</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Paarkarten</t>
   </si>
   <si>
-    <t>aktionskarte, exploding kitten, paarkarte</t>
-  </si>
-  <si>
     <t>nö, angriff, hops, wunsch, mischen, blick in die zukunft</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>name, hand, ausgeschieden</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>aktion und kombination</t>
@@ -535,7 +526,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -572,14 +563,11 @@
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -589,14 +577,11 @@
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -606,14 +591,11 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -623,14 +605,11 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -640,14 +619,11 @@
       <c r="B6" s="2">
         <v>56</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -658,73 +634,73 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2">
         <f>B6-(B9+B11)</f>
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -743,25 +719,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -769,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -778,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -786,7 +764,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -803,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -820,10 +798,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -837,16 +815,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -854,16 +832,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -871,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -880,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -888,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -905,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -914,15 +892,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -932,39 +910,39 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>

--- a/class_diagram/descriptions/class_uebersicht_aktuell.xlsx
+++ b/class_diagram/descriptions/class_uebersicht_aktuell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianWalter\Documents\GitHub\se_exploding_kittens\Projekt\h\class_diagram\descriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portolan-my.sharepoint.com/personal/anuerk_portolancs_com/Documents/DHBW/Semester 3/SE - Theoretische Informatik/se_exploding_kittens/class_diagram/descriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138581F-2A44-463C-A3B0-4EAE0FFE53E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8138581F-2A44-463C-A3B0-4EAE0FFE53E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E7F27E4-60B5-44D4-B646-3B32F855F751}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Klassen Übersicht" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -70,45 +70,24 @@
     <t>n</t>
   </si>
   <si>
-    <t>spieler, kartenstapel</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
     <t>Paarkarten</t>
   </si>
   <si>
-    <t>nö, angriff, hops, wunsch, mischen, blick in die zukunft</t>
-  </si>
-  <si>
-    <t>regenbogen rülpsende Katze, Bartze, Tacocat, Katzelone, Behaarte Katzoffel</t>
-  </si>
-  <si>
-    <t>anzahl spieler, karten</t>
-  </si>
-  <si>
     <t>Wichtige Eigenschaften</t>
   </si>
   <si>
     <t>Aktion</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein Stapel von dem Karten gezogen, oder auf den Karten abgelegt wwerden können </t>
-  </si>
-  <si>
     <t>Ein Set aus Karten die einem Spieler gehören</t>
   </si>
   <si>
     <t>Hat eine Aktion wenn mehrere vom gleichen Typ auf der Hand sind</t>
   </si>
   <si>
-    <t>Hat eine Aktion (ggf. in Abhänigkeit von Paar). Kann von einem Spieler abgelegt oder gezogen werden</t>
-  </si>
-  <si>
-    <t>Kann Spieler zum ausscheiden brigen. Kann zurück in den Stapel gelegt werden</t>
-  </si>
-  <si>
     <t>Klasse 1</t>
   </si>
   <si>
@@ -166,21 +145,9 @@
     <t>Aktionskarte</t>
   </si>
   <si>
-    <t>Hat eine Aktion wenn eine Explding Kitten gezogen wurde.</t>
-  </si>
-  <si>
     <t>name, hand, ausgeschieden</t>
   </si>
   <si>
-    <t>aktion und kombination</t>
-  </si>
-  <si>
-    <t>aktion</t>
-  </si>
-  <si>
-    <t>aufdruck</t>
-  </si>
-  <si>
     <t>anzahl Karten</t>
   </si>
   <si>
@@ -188,6 +155,36 @@
   </si>
   <si>
     <t>2..5</t>
+  </si>
+  <si>
+    <t>Hat eine Aktion wenn eine Explo ding Kitten gezogen wurde.</t>
+  </si>
+  <si>
+    <t>Regenbogen rülpsende Katze, Bartze, Tacocat, Katzelone, Behaarte Katzoffel</t>
+  </si>
+  <si>
+    <t>Aktion und Kombination</t>
+  </si>
+  <si>
+    <t>Anzahl Spieler, karten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Stapel von dem Karten gezogen, oder auf den Karten abgelegt werden können </t>
+  </si>
+  <si>
+    <t>Aufdruck</t>
+  </si>
+  <si>
+    <t>Spieler, Karten Stapel</t>
+  </si>
+  <si>
+    <t>nö, angriff, hops, Wunsch, mischen, blick in die Zukunft</t>
+  </si>
+  <si>
+    <t>Hat eine Aktion (ggf. in Abhängigkeit von Paar). Kann von einem Spieler abgelegt oder gezogen werden</t>
+  </si>
+  <si>
+    <t>Kann Spieler zum ausscheiden bringen. Kann zurück in den Stapel gelegt werden</t>
   </si>
 </sst>
 </file>
@@ -526,20 +523,20 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="232.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="232.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,13 +547,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -564,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -578,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -592,13 +589,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -606,13 +603,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -620,13 +617,13 @@
         <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -634,73 +631,73 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <f>B6-(B9+B11)</f>
         <v>32</v>
       </c>
       <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -717,37 +714,37 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -756,15 +753,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -776,12 +773,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -793,15 +790,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -810,46 +807,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -858,15 +855,15 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -878,12 +875,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -892,15 +889,15 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -908,41 +905,41 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
